--- a/Polar Plus v2/PCBA/v2.0.0/revA/Polar Plus v2.0.0 revA BOM.xlsx
+++ b/Polar Plus v2/PCBA/v2.0.0/revA/Polar Plus v2.0.0 revA BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Documents\Github\PirateMIDI\Polar\Polar Plus v2\PCBA\v2.0.0\revA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21660824-90A9-410E-BEA1-F3BA958248B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4637BBF5-42A5-4E19-A482-CABD8A439DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6510" yWindow="3675" windowWidth="28800" windowHeight="15345" xr2:uid="{5CB91941-B6A7-4C3E-9F52-7BDA60BEA3EF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{5CB91941-B6A7-4C3E-9F52-7BDA60BEA3EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Polar Plus v2 v22" sheetId="2" r:id="rId1"/>
@@ -160,9 +160,6 @@
     <t>1K</t>
   </si>
   <si>
-    <t>R5, R9, R19, R21</t>
-  </si>
-  <si>
     <t>C11702</t>
   </si>
   <si>
@@ -562,9 +559,6 @@
     <t>R0402-200K</t>
   </si>
   <si>
-    <t>R1, R16</t>
-  </si>
-  <si>
     <t>R11, R14, R23</t>
   </si>
   <si>
@@ -614,12 +608,18 @@
   </si>
   <si>
     <t>IR26-61C/L302/TR8</t>
+  </si>
+  <si>
+    <t>R5, R21</t>
+  </si>
+  <si>
+    <t>R1, R16, R9, R19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -649,9 +649,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -673,7 +672,9 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{01814920-E805-44C7-BBBF-B0B5F6CEEF50}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1034,8 +1035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3980DB03-E917-4E29-AE30-EEF59306DB5A}">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1072,19 +1073,19 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2" t="s">
         <v>155</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" t="s">
         <v>156</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1092,19 +1093,19 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" t="s">
         <v>158</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" t="s">
         <v>159</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1112,19 +1113,19 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="D4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1132,19 +1133,19 @@
       <c r="A5">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="D5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1152,19 +1153,19 @@
       <c r="A6">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="D6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E6" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1172,19 +1173,19 @@
       <c r="A7">
         <v>1</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1192,19 +1193,19 @@
       <c r="A8">
         <v>1</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1212,19 +1213,19 @@
       <c r="A9">
         <v>3</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="D9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E9" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1232,19 +1233,19 @@
       <c r="A10">
         <v>1</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1252,319 +1253,319 @@
       <c r="A11">
         <v>4</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
+        <v>186</v>
+      </c>
+      <c r="E11" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" t="s">
         <v>37</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E12" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" t="s">
         <v>40</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
+        <v>165</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
         <v>166</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" t="s">
         <v>167</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" t="s">
         <v>168</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>187</v>
+      </c>
+      <c r="E14" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" t="s">
         <v>43</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>169</v>
+      </c>
+      <c r="E15" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" t="s">
         <v>46</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" t="s">
         <v>50</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
+        <v>170</v>
+      </c>
+      <c r="E17" t="s">
+        <v>171</v>
+      </c>
+      <c r="F17" t="s">
         <v>172</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" t="s">
+        <v>173</v>
+      </c>
+      <c r="E18" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" t="s">
         <v>54</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>174</v>
+      </c>
+      <c r="E19" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" t="s">
         <v>57</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" t="s">
         <v>61</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" t="s">
+        <v>175</v>
+      </c>
+      <c r="E21" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" t="s">
         <v>65</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" t="s">
         <v>69</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" t="s">
         <v>72</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" t="s">
         <v>73</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>4</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" t="s">
+        <v>176</v>
+      </c>
+      <c r="E24" t="s">
         <v>76</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" t="s">
         <v>77</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>5</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" t="s">
         <v>80</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" t="s">
         <v>81</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F26" s="1" t="s">
+      <c r="B26" t="s">
+        <v>177</v>
+      </c>
+      <c r="C26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" t="s">
+        <v>143</v>
+      </c>
+      <c r="E26" t="s">
+        <v>178</v>
+      </c>
+      <c r="F26" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1572,39 +1573,39 @@
       <c r="A27">
         <v>2</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" t="s">
         <v>85</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="F27" t="s">
         <v>86</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" t="s">
         <v>88</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" t="s">
         <v>89</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" t="s">
         <v>90</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1612,39 +1613,39 @@
       <c r="A29">
         <v>1</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" t="s">
         <v>92</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" t="s">
         <v>93</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" t="s">
         <v>94</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" t="s">
         <v>96</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" t="s">
         <v>97</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" t="s">
         <v>98</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1652,119 +1653,119 @@
       <c r="A31">
         <v>1</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" t="s">
         <v>100</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" t="s">
         <v>101</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" t="s">
         <v>102</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" t="s">
         <v>103</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" t="s">
         <v>105</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" t="s">
         <v>106</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" t="s">
         <v>107</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" t="s">
         <v>109</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" t="s">
         <v>110</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" t="s">
         <v>111</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>109</v>
+      <c r="F33" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" t="s">
         <v>113</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" t="s">
         <v>114</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" t="s">
         <v>115</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="F34" t="s">
         <v>116</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" t="s">
+        <v>117</v>
+      </c>
+      <c r="C35" t="s">
         <v>118</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" t="s">
         <v>119</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>187</v>
+      <c r="E35" t="s">
+        <v>184</v>
+      </c>
+      <c r="F35" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" t="s">
         <v>121</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" t="s">
         <v>122</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" t="s">
         <v>123</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1772,39 +1773,39 @@
       <c r="A37">
         <v>1</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" t="s">
+        <v>124</v>
+      </c>
+      <c r="C37" t="s">
         <v>125</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" t="s">
         <v>126</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" t="s">
         <v>127</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="F37" t="s">
         <v>128</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" t="s">
+        <v>129</v>
+      </c>
+      <c r="C38" t="s">
         <v>130</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" t="s">
         <v>131</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="E38" t="s">
         <v>132</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1812,19 +1813,19 @@
       <c r="A39">
         <v>2</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" t="s">
+        <v>133</v>
+      </c>
+      <c r="C39" t="s">
         <v>134</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" t="s">
         <v>135</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" t="s">
         <v>6</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F39" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1832,39 +1833,39 @@
       <c r="A40">
         <v>1</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" t="s">
+        <v>136</v>
+      </c>
+      <c r="C40" t="s">
+        <v>125</v>
+      </c>
+      <c r="D40" t="s">
         <v>137</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" t="s">
         <v>138</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="F40" t="s">
         <v>139</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" t="s">
+        <v>140</v>
+      </c>
+      <c r="C41" t="s">
         <v>141</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="D41" t="s">
         <v>142</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" t="s">
         <v>6</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F41" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1872,60 +1873,60 @@
       <c r="A42">
         <v>2</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" t="s">
+        <v>179</v>
+      </c>
+      <c r="C42" t="s">
+        <v>180</v>
+      </c>
+      <c r="D42" t="s">
         <v>181</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="E42" t="s">
         <v>182</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="F42" t="s">
         <v>183</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" t="s">
+        <v>144</v>
+      </c>
+      <c r="C43" t="s">
         <v>145</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" t="s">
         <v>146</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" t="s">
         <v>147</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="F43" t="s">
         <v>148</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" t="s">
+        <v>149</v>
+      </c>
+      <c r="C44" t="s">
         <v>150</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" t="s">
         <v>151</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="E44" t="s">
         <v>152</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="F44" t="s">
         <v>153</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
   </sheetData>
